--- a/app/static/datetime.xlsx
+++ b/app/static/datetime.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,32 +471,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>fsddsf23rwer2</t>
+          <t>ACV285558042</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2rewewrrewwerwer</t>
+          <t>Ovcharenko Aleksei</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>RWE</t>
+          <t>75</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>werwrerewer</t>
+          <t>4935926</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ewrwerwrewer</t>
+          <t>32003856530010</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>werewrwerwerwer</t>
+          <t>+998908229966</t>
         </is>
       </c>
     </row>
@@ -506,32 +506,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ddssaadas</t>
+          <t>ACV285451097</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>dsadads</t>
+          <t>Shuxratov Azamat Shuxrat o‘g‘li</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ASD</t>
+          <t>AD</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>adsadsadss</t>
+          <t>3589732</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>asdsdadsads</t>
+          <t>31912901671208</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>adsadsadsadsads</t>
+          <t>+998905151555</t>
         </is>
       </c>
     </row>
@@ -541,32 +541,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>adsdsdsfdsfdf</t>
+          <t>ACV282335587</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2342442234</t>
+          <t>Бикметов Рауф</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>66</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>432432432342</t>
+          <t>4022070</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>324324234</t>
+          <t>32403746500015</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>23423432423434</t>
+          <t>+998940754066</t>
         </is>
       </c>
     </row>
@@ -576,32 +576,1677 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>adsdsaadsads</t>
+          <t>ACV284609097</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>dsadsadsasdad</t>
+          <t>Навроз Нарзуллаев.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>DAS</t>
+          <t>AD</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>123121231231</t>
+          <t>4519913</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>asads12dsadsad</t>
+          <t>497804124</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>123123123212312</t>
+          <t>+998933554008</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>69746359-0001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Плахтий Лола Абдурахмановна</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2998573</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>41003696500019</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>+998935758370</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ACV277599777</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Ксения Ремнева</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>AC</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2800537</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>41706960210013</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>+998935150964</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ACV277599777</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Ксения Ремнева</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>AC</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2800537</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>41706960210013</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>+998935150964</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>80084417-0001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Рахимбердиева Наиля я Жавлонбековна</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>7740772</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>61508016590045</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>+998909950945</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>80084417-0001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Рахимбердиева Наиля я Жавлонбековна</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>7740772</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>61508016590045</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>+998990797379</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>80084417-0001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Рахимбердиева Наиля я Жавлонбековна</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>7740772</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>61508016590045</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>+998990797379</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ACV281846277</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Xayrullayev Raxmon Ravshanovich</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2517566</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>32501975260019</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>+998997707766</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0149896068-0001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Павел Семененко</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>6278902</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>32007956600037</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>998917981746</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ACV285257702</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Муртазов Аброр Алишер угли</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1489691</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>30708952720034</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>912577117</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ACV285257702</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Муртазов Аброр Алишер угли</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1489691</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>30708952720034</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>912577117</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ACV285251262</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Гаврилов Владимир Вячеславович</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1049171</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>32707930430101</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>+998998697149</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0149859289-0001</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Нурмаматзода Отабек Адхамжон угли</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>5274205</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>32111976530017</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>917777716</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Не знаю</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Baysarieva Gulnoza Asatjanovna</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1128590</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>41104810430028</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>+998909001415</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ACV285562517</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Устинов Антон Викторович</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>5082055</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>30102846576044</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>+998500045501</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ACV285527702</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Bessarabova Nadejda Vyacheslavovna</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>3185366</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>40603780520036</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>998903368485</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ACV283302747</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Kalashnikov Vladimir Nikolaevich</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>XS</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0053832</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>32910770270574</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>+998909036428</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>0149209831-001,0149209831-002</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Mansur Ataboyev</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>5029739</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>33107883940103</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>+998941852801</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>0149209831-001,0149209831-002</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Mansur Ataboyev</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>5029739</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>33107883940103</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>+998941852801</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ACV286136812</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>SHCHEDRINA IRINA</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>9640571</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>41105570060041</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>+998903472267</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ACV285518222</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>SHCHEDRINA IRINA</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>9640571</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>41105570060041</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>+998903472267</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ACV283673537</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Джалилов Фаррух Шерзодович</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>4563152</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>31207976180024</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>+998906062353</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>0149817875-0001</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Кашлаков Алексей</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>5809964</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>32004796600010</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>998908252445</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ACV285252752</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Tayranova Jamila Kuanesh Qizi</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>1789742</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>40410940470054</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>+998885982878</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ACV285365567</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Inessa Shamardina</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2944956</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>40311860270064</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>977393631</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ACV285527777</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Inessa Shamardina</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2944956</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>40311860270064</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>977393631</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ACV285611047</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Inessa Shamardina</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2944956</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>40311860270064</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>977393631</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ACV286005327</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Inessa Shamardina</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2944956</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>40311860270064</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>977393631</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ACV285252752</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Темирли Темиршах Илхам оглы</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>1227152</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>у меня нет</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>+79645847158</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ACV281588742</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Жиляев Андрей Игоревич</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>1645193</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>30711930232184</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>+998903585677</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ACV281890587</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Жиляев Андрей Игоревич</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>1645193</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>30711930232184</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>+998903585677</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ACV280553072</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Callum Finaughty</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>AO</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2890098</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0508916520034</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>+998900260124</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ACV285070622</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Мансурова Екатерина Андреевна</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>0631333</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>40602966520015</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>+998887033315</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ACV279913512</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Неклеенов Михаил Юрьевич</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>XS</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>0047258</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>31911890231396</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>+998977405820</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ACV285396312</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Сутягин Юрий Александрович</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2872535</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>32012780280025</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>+998994861444</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>0149612747-0003</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Туйлибаева Нилуфар Канибек кизи</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>АА</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>5677984</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>40103930241690</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>+998950560606</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ACV285230817</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>U Anatoliy XXX</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>9867340</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>31905706560017</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>+998900975346</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>0149881851-0002</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Курбанов Вали</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>5263120</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>32710710330016</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>+998880332829</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>0149881851-0002</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Курбанов Вали</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>5263120</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>32710710330016</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>+998880332829</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>0149496859-0001</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Gafurov Rustam Basitovich</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2345117</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>31305720200043</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>+998909390214</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>0150009050-0001</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>SHCHEDRINA IRINA</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>9640571</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>41105570060041</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>+998903472267</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ACV285493672</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Nigorakhon Usmonova</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>4900938</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>42808930192587</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>+998900967074</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ACV285252757</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Yuriy Ogay</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>2085617</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>31111810180052</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>+998903714911</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>ACV285512877</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Husenov Feruz Nayimjon o'g'li</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>AD</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>3966233</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>31503934050245</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>+998979186093</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ACV285294842</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Намазова Евгения Валерьевна</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>АА</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>5201766</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>41308776520018</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>+998909141885</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ACV285151112</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Намазова Евгения Валерьевна</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>АА</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>5201766</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>41308776520018</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>+998909141885</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ACV282031087</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Зорин Алексей</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>8430944</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>32601976590048</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>+998908290296</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>ACV280209422</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Зорин Алексей</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>8430944</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>32601976590048</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>+998908290296</t>
         </is>
       </c>
     </row>
